--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>OmniDB</t>
   </si>
@@ -105,9 +105,6 @@
     <t>MySQL</t>
   </si>
   <si>
-    <t>5.5.x</t>
-  </si>
-  <si>
     <t>5.6.x</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>MariaDB</t>
-  </si>
-  <si>
-    <t>10.0.x</t>
   </si>
   <si>
     <t>10.1.x</t>
@@ -132,11 +126,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +156,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +170,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,11 +230,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,82 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +299,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,180 +329,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -624,27 +625,59 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -693,6 +726,21 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -714,6 +762,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -729,6 +801,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,58 +845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,152 +855,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,22 +1034,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,10 +1382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1382,7 +1445,7 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1413,7 +1476,7 @@
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1444,7 +1507,7 @@
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1475,7 +1538,7 @@
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1506,7 +1569,7 @@
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1537,7 +1600,7 @@
       <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1631,7 @@
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
         <v>12</v>
@@ -1597,7 +1660,7 @@
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1626,7 +1689,7 @@
       <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1720,7 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
         <v>12</v>
@@ -1684,7 +1747,7 @@
       <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
         <v>12</v>
@@ -1711,7 +1774,7 @@
       <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
         <v>12</v>
@@ -1740,7 +1803,7 @@
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1761,7 +1824,7 @@
       <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1782,7 +1845,7 @@
       <c r="D19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1798,14 +1861,14 @@
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:12">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1817,12 +1880,12 @@
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:12">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1834,12 +1897,14 @@
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:12">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1851,72 +1916,19 @@
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:12">
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:12">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:12">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:12">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1928,8 +1940,8 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="B17:C19"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24600" windowHeight="12675"/>
+    <workbookView windowWidth="25095" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>OmniDB</t>
   </si>
@@ -45,6 +45,12 @@
     <t>2.7.x</t>
   </si>
   <si>
+    <t>2.8.x</t>
+  </si>
+  <si>
+    <t>2.9.x</t>
+  </si>
+  <si>
     <t>PostgreSQL</t>
   </si>
   <si>
@@ -87,6 +93,12 @@
     <t>1.x</t>
   </si>
   <si>
+    <t>3.x</t>
+  </si>
+  <si>
+    <t>Y (1)</t>
+  </si>
+  <si>
     <t>Postgres-XL</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
   </si>
   <si>
     <t>10.2.x</t>
+  </si>
+  <si>
+    <t>(1) Support to BDR 3 was removed from core and converted to a plugin.</t>
   </si>
 </sst>
 </file>
@@ -125,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -147,40 +162,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,22 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +208,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -230,16 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +240,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -262,24 +269,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,6 +289,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,192 +314,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -526,9 +541,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -571,19 +584,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -599,22 +623,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -687,7 +696,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -699,8 +721,73 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -713,12 +800,23 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -726,29 +824,53 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,11 +884,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,36 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -827,21 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -855,152 +938,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,6 +1108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,22 +1120,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,6 +1151,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1393,11 +1512,11 @@
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="12" width="6.625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="13.5"/>
-    <row r="3" ht="30" customHeight="1" spans="5:12">
+    <row r="3" ht="30" customHeight="1" spans="5:14">
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1407,541 +1526,689 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="29"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="5:12">
-      <c r="E4" s="8" t="s">
+    <row r="4" ht="15" customHeight="1" spans="5:14">
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="26" t="s">
         <v>8</v>
       </c>
+      <c r="M4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="2:12">
+    <row r="5" ht="15" customHeight="1" spans="2:14">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="2:12">
+    <row r="6" ht="15" customHeight="1" spans="2:14">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="2:12">
+    <row r="7" ht="15" customHeight="1" spans="2:14">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="2:12">
+    <row r="8" ht="15" customHeight="1" spans="2:14">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="2:12">
+    <row r="9" ht="15" customHeight="1" spans="2:14">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="2:12">
+    <row r="10" ht="15" customHeight="1" spans="2:14">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="2:12">
+    <row r="11" ht="15" customHeight="1" spans="2:14">
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="2:12">
+    <row r="12" ht="15" customHeight="1" spans="2:14">
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="2:12">
+    <row r="13" ht="15" customHeight="1" spans="2:14">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>12</v>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="2:12">
+    <row r="14" ht="15" customHeight="1" spans="2:14">
       <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>12</v>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="2:12">
+    <row r="15" ht="15" customHeight="1" spans="2:14">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="2:12">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="19"/>
+    <row r="16" ht="15" customHeight="1" spans="2:14">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="2:12">
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="19"/>
+    <row r="17" ht="15" customHeight="1" spans="2:14">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="2:12">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="19"/>
+    <row r="18" ht="15" customHeight="1" spans="2:14">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="2:12">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="19"/>
+    <row r="19" ht="15" customHeight="1" spans="2:14">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="2:12">
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="19"/>
+    <row r="20" ht="15" customHeight="1" spans="2:14">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7" t="s">
-        <v>12</v>
+      <c r="J20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="2:12">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="19"/>
+    <row r="21" ht="15" customHeight="1" spans="2:14">
+      <c r="B21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7" t="s">
-        <v>12</v>
+      <c r="K21" s="7"/>
+      <c r="L21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="2:12">
-      <c r="B22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="19"/>
+    <row r="22" ht="15" customHeight="1" spans="2:14">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7" t="s">
-        <v>12</v>
+      <c r="K22" s="7"/>
+      <c r="L22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="2:12">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="17" t="s">
-        <v>12</v>
+    <row r="23" ht="15" customHeight="1" spans="2:14">
+      <c r="B23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="2:14">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B5:B17"/>
     <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>OmniDB</t>
   </si>
@@ -57,6 +57,9 @@
     <t>2.11.x</t>
   </si>
   <si>
+    <t>2.12.x</t>
+  </si>
+  <si>
     <t>PostgreSQL</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
     <t>2.x</t>
   </si>
   <si>
+    <t>(1)</t>
+  </si>
+  <si>
     <t>3.x</t>
   </si>
   <si>
@@ -99,15 +105,21 @@
     <t>0.x</t>
   </si>
   <si>
+    <t>(2)</t>
+  </si>
+  <si>
     <t>1.x</t>
   </si>
   <si>
-    <t>(1)</t>
+    <t>(3)</t>
   </si>
   <si>
     <t>Postgres-XL</t>
   </si>
   <si>
+    <t>(4)</t>
+  </si>
+  <si>
     <t>Oracle</t>
   </si>
   <si>
@@ -138,13 +150,22 @@
     <t>10.2.x</t>
   </si>
   <si>
-    <t>(1) Support to BDR 3 was removed from core and converted to a plugin.</t>
+    <t>(1) Support to pglogical 2/3 was removed from core and converted to a plugin.</t>
+  </si>
+  <si>
+    <t>(2) Support to BDR 1/2 was removed from core and converted to a plugin.</t>
   </si>
   <si>
     <t>Not implemented yet</t>
   </si>
   <si>
+    <t>(3) Support to BDR 3 was removed from core and converted to a plugin.</t>
+  </si>
+  <si>
     <t>Supported in OmniDB core</t>
+  </si>
+  <si>
+    <t>(4) Support to Postgres-XL was removed from core and converted to a plugin.</t>
   </si>
   <si>
     <t>Supported in an external plugin</t>
@@ -158,8 +179,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -195,11 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,24 +240,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,31 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,8 +278,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +302,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,12 +316,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -362,43 +383,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,133 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,10 +912,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -904,10 +925,8 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -917,7 +936,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -928,7 +949,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -961,6 +982,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -971,36 +1022,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1011,6 +1032,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,155 +1055,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,39 +1215,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,10 +1278,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1329,43 +1347,46 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,10 +1704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:P33"/>
+  <dimension ref="B3:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1695,553 +1716,603 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="14" width="6.625" style="2" customWidth="1"/>
-    <col min="15" max="16" width="6.625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="5" max="17" width="6.625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="13.5"/>
-    <row r="3" ht="30" customHeight="1" spans="5:16">
-      <c r="E3" s="26" t="s">
+    <row r="3" ht="30" customHeight="1" spans="5:17">
+      <c r="E3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="48"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="5:16">
-      <c r="E4" s="28" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="55"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="5:17">
+      <c r="E4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="2:16">
-      <c r="B5" s="4" t="s">
+      <c r="Q4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="2:17">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:16">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="2:16">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="57"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="2:17">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="2:16">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="2:17">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="2:16">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="58"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="2:17">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="2:16">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="58"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="2:17">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="2:16">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="58"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="2:17">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="55"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="2:16">
-      <c r="B12" s="7"/>
-      <c r="C12" s="11" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="58"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="2:17">
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="2:17">
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="2:16">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="2:16">
-      <c r="B14" s="7"/>
-      <c r="C14" s="11" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="2:17">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="2:16">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="2:17">
+      <c r="B14" s="6"/>
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="2:16">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="2:16">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="2:17">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="2:17">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="2:16">
-      <c r="B18" s="7"/>
-      <c r="C18" s="12" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="2:16">
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="9" t="s">
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="2:17">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="59"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="2:17">
+      <c r="B18" s="6"/>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="2:16">
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="2:17">
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="55"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="2:16">
-      <c r="B21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="2:16">
-      <c r="B22" s="17"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="2:16">
-      <c r="B23" s="18"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:16">
-      <c r="B24" s="19" t="s">
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:17">
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="2:17">
+      <c r="B21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="6" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:16">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="14" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="58"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="2:17">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:16">
-      <c r="B26" s="19" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="58"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="2:17">
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="6" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="58"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="2:17">
+      <c r="B24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="2:16">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="58"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="2:17">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="58"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="2:17">
+      <c r="B26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="58"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="2:17">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12">
-      <c r="K30" s="43"/>
-      <c r="L30" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12">
-      <c r="K31" s="45"/>
-      <c r="L31" s="44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="11:12">
-      <c r="K32" s="46"/>
-      <c r="L32" s="44" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="45"/>
+      <c r="L32" s="43" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="11:12">
-      <c r="K33" s="47"/>
-      <c r="L33" s="44" t="s">
-        <v>44</v>
+      <c r="K33" s="46"/>
+      <c r="L33" s="43" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E3:Q3"/>
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C13"/>

--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>OmniDB</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>(4)</t>
+  </si>
+  <si>
+    <t>2ndQPostgres</t>
   </si>
   <si>
     <t>Oracle</t>
@@ -179,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,7 +212,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -218,12 +221,80 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -239,9 +310,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,95 +340,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -383,97 +386,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,84 +560,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -600,7 +603,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -635,7 +640,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -674,103 +681,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -786,12 +700,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -806,6 +726,156 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -869,24 +939,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -897,78 +950,89 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,8 +1078,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1032,17 +1098,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,152 +1115,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,91 +1300,121 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1347,46 +1432,31 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,10 +1774,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:Q33"/>
+  <dimension ref="B2:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1720,61 +1790,62 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="13.5"/>
     <row r="3" ht="30" customHeight="1" spans="5:17">
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="55"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="5:17">
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="57" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1788,19 +1859,19 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="57"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:17">
       <c r="B6" s="6"/>
@@ -1808,19 +1879,19 @@
       <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="50"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="59"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:17">
       <c r="B7" s="6"/>
@@ -1828,19 +1899,19 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="58"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:17">
       <c r="B8" s="6"/>
@@ -1848,19 +1919,19 @@
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="58"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:17">
       <c r="B9" s="6"/>
@@ -1868,19 +1939,19 @@
       <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="58"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:17">
       <c r="B10" s="6"/>
@@ -1888,19 +1959,19 @@
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="58"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:17">
       <c r="B11" s="6"/>
@@ -1908,19 +1979,19 @@
       <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="58"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:17">
       <c r="B12" s="6"/>
@@ -1930,19 +2001,19 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="53" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="62" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1952,19 +2023,19 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="53" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="62" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1976,19 +2047,19 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="53" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1998,19 +2069,19 @@
       <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="53" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2020,307 +2091,350 @@
       <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="53" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:17">
       <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="52" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="59"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:17">
-      <c r="B18" s="6"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="53" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="2:17">
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="53" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:17">
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="53" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:17">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="65"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="2:17">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="65"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="2:17">
+      <c r="B23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="58"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="2:17">
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="58"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="2:17">
-      <c r="B23" s="16"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="2:17">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="58"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:17">
-      <c r="B24" s="17" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="2:17">
+      <c r="B25" s="24"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="5" t="s">
+      <c r="E25" s="44"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="2:17">
+      <c r="B26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="58"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:17">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="12" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="58"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:17">
-      <c r="B26" s="17" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="2:17">
+      <c r="B27" s="12"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="5" t="s">
+      <c r="E27" s="44"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="2:17">
+      <c r="B28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="2:17">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="60"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+      <c r="E28" s="44"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="2:17">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="24" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43" t="s">
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="24" t="s">
+      <c r="K32" s="52"/>
+      <c r="L32" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="43" t="s">
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="24" t="s">
+      <c r="K33" s="54"/>
+      <c r="L33" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="43" t="s">
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33" s="46"/>
-      <c r="L33" s="43" t="s">
+      <c r="K34" s="55"/>
+      <c r="L34" s="53" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="35" spans="11:12">
+      <c r="K35" s="56"/>
+      <c r="L35" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="E3:Q3"/>
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="B28:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12645"/>
+    <workbookView windowWidth="24600" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>OmniDB</t>
   </si>
@@ -58,6 +56,9 @@
   </si>
   <si>
     <t>2.12.x</t>
+  </si>
+  <si>
+    <t>2.13.x</t>
   </si>
   <si>
     <t>PostgreSQL</t>
@@ -182,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,9 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,29 +231,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,6 +249,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -281,7 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,16 +296,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,34 +341,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -386,13 +387,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,132 +555,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -603,9 +604,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -640,9 +639,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -681,9 +678,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -744,9 +739,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -795,36 +788,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -854,19 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -881,19 +837,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -930,6 +873,36 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -940,7 +913,40 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -951,7 +957,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -971,43 +977,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1076,6 +1045,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1083,21 +1067,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,152 +1084,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,19 +1269,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1327,9 +1290,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,67 +1311,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,31 +1365,61 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1774,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Q35"/>
+  <dimension ref="B2:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1786,646 +1749,675 @@
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="17" width="6.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="5" max="18" width="6.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="13.5"/>
-    <row r="3" ht="30" customHeight="1" spans="5:17">
-      <c r="E3" s="33" t="s">
+    <row r="3" ht="30" customHeight="1" spans="5:18">
+      <c r="E3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="64"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="5:17">
-      <c r="E4" s="35" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="5:18">
+      <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="2:17">
+      <c r="R4" s="54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="2:18">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:17">
+        <v>17</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="2:18">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="2:17">
+        <v>18</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="2:18">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="2:17">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="59"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="2:18">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="2:17">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="59"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="2:18">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="2:17">
+        <v>21</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="59"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="2:18">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="2:17">
+        <v>22</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="59"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="2:18">
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="2:17">
+        <v>23</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="59"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="2:18">
       <c r="B12" s="6"/>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="2:17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="61"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="2:18">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="2:17">
+      <c r="R13" s="61"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="2:18">
       <c r="B14" s="6"/>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="62" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="2:17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="61"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="2:18">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="2:17">
+      <c r="R15" s="61"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="2:18">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="2:17">
+        <v>25</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="61"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="2:18">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="2:17">
+        <v>27</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="61"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="2:18">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="2:17">
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="61"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="2:18">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="2:17">
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="61"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:18">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="2:17">
-      <c r="B21" s="15"/>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="61"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="2:18">
+      <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="65"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="2:17">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="65"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="2:17">
-      <c r="B23" s="19" t="s">
-        <v>35</v>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="59"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="2:18">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="59"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="2:18">
+      <c r="B23" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:17">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+      <c r="D23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:17">
-      <c r="B25" s="24"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="59"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="2:18">
+      <c r="B24" s="19"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="59"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="2:18">
+      <c r="B25" s="20"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:17">
-      <c r="B26" s="26" t="s">
+      <c r="D25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="59"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="2:18">
+      <c r="B26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="2:17">
+      <c r="C26" s="22"/>
+      <c r="D26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="59"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="2:18">
       <c r="B27" s="12"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="2:17">
-      <c r="B28" s="26" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="59"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="2:18">
+      <c r="B28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="2:17">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="59"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="2:18">
+      <c r="B29" s="14"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53" t="s">
         <v>47</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="53" t="s">
         <v>49</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="41" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="55"/>
-      <c r="L34" s="53" t="s">
         <v>51</v>
       </c>
+      <c r="K34" s="43"/>
+      <c r="L34" s="41" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="56"/>
-      <c r="L35" s="53" t="s">
-        <v>52</v>
+      <c r="K35" s="44"/>
+      <c r="L35" s="41" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E3:R3"/>
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C13"/>
@@ -2440,36 +2432,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/support_matrix.xlsx
+++ b/support_matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t xml:space="preserve">OmniDB</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">2.15.x</t>
   </si>
   <si>
+    <t xml:space="preserve">2.16.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17.x</t>
+  </si>
+  <si>
     <t xml:space="preserve">PostgreSQL</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.x</t>
   </si>
   <si>
     <t xml:space="preserve">pglogical</t>
@@ -492,20 +501,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:T38"/>
+  <dimension ref="B3:V39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="5" style="2" width="6.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="5" style="2" width="6.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -527,6 +536,8 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="4" t="s">
@@ -577,16 +588,22 @@
       <c r="T4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="U4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -604,12 +621,14 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -627,12 +646,14 @@
       <c r="R6" s="8"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -650,12 +671,14 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -673,12 +696,14 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -696,12 +721,14 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
@@ -719,12 +746,14 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -742,91 +771,97 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="10"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="6"/>
@@ -841,42 +876,46 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -886,47 +925,51 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="N18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
@@ -943,42 +986,48 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -996,37 +1045,41 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12" t="s">
-        <v>39</v>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
+      <c r="D23" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1044,12 +1097,14 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -1067,35 +1122,39 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -1113,37 +1172,41 @@
       <c r="R26" s="13"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="12" t="s">
-        <v>45</v>
+      <c r="D27" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
+      <c r="D28" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1161,12 +1224,14 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -1175,23 +1240,23 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="12" t="s">
-        <v>49</v>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1200,21 +1265,25 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="5" t="s">
-        <v>50</v>
+      <c r="D31" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -1232,12 +1301,14 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -1246,21 +1317,23 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1276,57 +1349,84 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="K36" s="14"/>
       <c r="L36" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="K37" s="16"/>
       <c r="L37" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="K38" s="17"/>
       <c r="L38" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="B5:B21"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:C26"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="B30:C33"/>
+    <mergeCell ref="E3:V3"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B31:C34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
